--- a/gwy/XC_言语理解与表达测试_第八期20130403.xlsx
+++ b/gwy/XC_言语理解与表达测试_第八期20130403.xlsx
@@ -690,15 +690,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="7" max="7" width="61.5" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -750,7 +754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -776,7 +780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -802,7 +806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -828,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -854,7 +858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -880,7 +884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -906,7 +910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -932,7 +936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -958,7 +962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -977,11 +981,10 @@
       <c r="F11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="4" t="s">
         <v>56</v>
       </c>
     </row>
